--- a/papers_processed/maik.xlsx
+++ b/papers_processed/maik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6887E233-0107-4467-9955-39825BDFA5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812DFA9-F2D3-41B4-B3DC-F3FE1E198CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92953EB5-0F93-AF44-AA44-673AB07F51B0}"/>
+    <workbookView xWindow="7230" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{92953EB5-0F93-AF44-AA44-673AB07F51B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Final papers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="352">
   <si>
     <t>doi</t>
   </si>
@@ -1930,15 +1930,6 @@
     <t>"+49.1"</t>
   </si>
   <si>
-    <t>Straw mulching (SM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic film mulching (PFM) </t>
-  </si>
-  <si>
-    <t>"+14"</t>
-  </si>
-  <si>
     <t>"+20.42"</t>
   </si>
   <si>
@@ -1951,51 +1942,18 @@
     <t>"+18.49"</t>
   </si>
   <si>
-    <t>"-1"</t>
-  </si>
-  <si>
-    <t>"-8"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementation of Hedgerows bordering annual arable crops </t>
   </si>
   <si>
     <t>"+30%"</t>
   </si>
   <si>
-    <t>Sandy clay loam</t>
-  </si>
-  <si>
-    <t>"+25"</t>
-  </si>
-  <si>
-    <t>"+21"</t>
-  </si>
-  <si>
     <t>yield, wue</t>
   </si>
   <si>
-    <t>"-15", "-12.5"</t>
-  </si>
-  <si>
-    <t>"+15", "+12.5"</t>
-  </si>
-  <si>
-    <t>"+7.5*</t>
-  </si>
-  <si>
-    <t>"4.22", "-17.84"</t>
-  </si>
-  <si>
-    <t>"+17.87", "+28.39"</t>
-  </si>
-  <si>
     <t>"+14.7", "+16.68"</t>
   </si>
   <si>
-    <t>"+15.37", "+27.66"</t>
-  </si>
-  <si>
     <t>"+16.45"</t>
   </si>
   <si>
@@ -2005,9 +1963,6 @@
     <t>"+17.43", "+42.41"</t>
   </si>
   <si>
-    <t>soil type IGNORE</t>
-  </si>
-  <si>
     <t>Loamy</t>
   </si>
   <si>
@@ -2023,7 +1978,22 @@
     <t>400–800</t>
   </si>
   <si>
-    <t>yearly precipitation IGNORE</t>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>results_detailed</t>
+  </si>
+  <si>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>"+4.22", "-17.84"</t>
+  </si>
+  <si>
+    <t>soil_type</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2225,17 +2195,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2259,9 +2222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2606,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55037D41-1AAF-2642-94AA-043DF64DE540}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2629,1393 +2589,564 @@
     <col min="13" max="13" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:13" s="43" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="123" thickBot="1">
+      <c r="A2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="51">
+        <v>33</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="165.75">
+      <c r="A3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="166.5" thickBot="1">
+      <c r="A4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" ht="180.75">
+      <c r="A5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="181.5" thickBot="1">
+      <c r="A6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" ht="107.25">
+      <c r="A7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="47">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="H7" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="47">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="122.25">
-      <c r="A2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="50">
-        <v>33</v>
-      </c>
-      <c r="E2" s="49" t="s">
+      <c r="K7" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="1:13" ht="90.75">
+      <c r="A8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M8" s="49"/>
+    </row>
+    <row r="9" spans="1:13" ht="91.5" thickBot="1">
+      <c r="A9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" ht="78.75">
+      <c r="A10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="M10" s="55"/>
+    </row>
+    <row r="11" spans="1:13" ht="78.75">
+      <c r="A11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="M11" s="55"/>
+    </row>
+    <row r="12" spans="1:13" ht="78.75">
+      <c r="A12" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="M12" s="55"/>
+    </row>
+    <row r="13" spans="1:13" ht="78.75">
+      <c r="A13" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="L13" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="123" thickBot="1">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="54">
-        <v>33</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="123">
-      <c r="A4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="50">
-        <v>2</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="50">
-        <v>5</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" spans="1:13" ht="123">
-      <c r="A5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="50">
-        <v>2</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="50">
-        <v>5</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="M5" s="49"/>
-    </row>
-    <row r="6" spans="1:13" ht="123">
-      <c r="A6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="50">
-        <v>2</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="50">
-        <v>5</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:13" ht="123.75" thickBot="1">
-      <c r="A7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="54">
-        <v>2</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="54">
-        <v>5</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="M7" s="53"/>
-    </row>
-    <row r="8" spans="1:13" ht="137.25">
-      <c r="A8" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="50">
-        <v>97</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="50">
-        <v>98</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="138" thickBot="1">
-      <c r="A9" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="54">
-        <v>97</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="54">
-        <v>98</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L9" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60.75">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60.75">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="61.5" thickBot="1">
-      <c r="A12" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="165.75">
-      <c r="A13" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" ht="166.5" thickBot="1">
-      <c r="A14" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" s="53" t="s">
+      <c r="M13" s="55"/>
+    </row>
+    <row r="14" spans="1:13" ht="78.75">
+      <c r="A14" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="M14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" ht="180.75">
-      <c r="A15" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" spans="1:13" ht="181.5" thickBot="1">
-      <c r="A16" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="M16" s="53"/>
-    </row>
-    <row r="17" spans="1:13" ht="108">
-      <c r="A17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="M17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="108">
-      <c r="A18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="M18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="108">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="108.75" thickBot="1">
-      <c r="A20" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30.75">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="10">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30.75">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="10">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="31.5" thickBot="1">
-      <c r="A23" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="46">
-        <v>3</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="L23" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13" ht="107.25">
-      <c r="A24" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="50">
-        <v>4</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="50">
-        <v>5</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L24" s="49" t="s">
+      <c r="L14" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="M24" s="52"/>
-    </row>
-    <row r="25" spans="1:13" ht="107.25">
-      <c r="A25" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="50">
-        <v>4</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="50">
-        <v>5</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="M25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" ht="108" thickBot="1">
-      <c r="A26" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="54">
-        <v>4</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="J26" s="54">
-        <v>5</v>
-      </c>
-      <c r="K26" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="M26" s="56"/>
-    </row>
-    <row r="27" spans="1:13" ht="90.75">
-      <c r="A27" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="M27" s="52"/>
-    </row>
-    <row r="28" spans="1:13" ht="91.5" thickBot="1">
-      <c r="A28" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="M28" s="56"/>
-    </row>
-    <row r="29" spans="1:13" ht="78.75">
-      <c r="A29" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="M29" s="59"/>
-    </row>
-    <row r="30" spans="1:13" ht="78.75">
-      <c r="A30" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L30" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="M30" s="59"/>
-    </row>
-    <row r="31" spans="1:13" ht="78.75">
-      <c r="A31" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="M31" s="59"/>
-    </row>
-    <row r="32" spans="1:13" ht="78.75">
-      <c r="A32" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L32" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="M32" s="59"/>
-    </row>
-    <row r="33" spans="1:13" ht="78.75">
-      <c r="A33" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="M33" s="59"/>
-    </row>
-    <row r="34" spans="1:13" ht="78.75">
-      <c r="A34" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L34" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="M34" s="59"/>
-    </row>
-    <row r="35" spans="1:13" ht="78.75">
-      <c r="A35" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="L35" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="M35" s="52"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="C48" s="7"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
